--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2967495.657702627</v>
+        <v>2969256.188005413</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8574639.140929332</v>
+        <v>8574639.14092933</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>85.20115868761656</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>212.568965117905</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>109.3170492634408</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>193.7369777182762</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>29.47591814426776</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>97.15584604732726</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015063</v>
+        <v>225.403139763615</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>111.2254363169659</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.317049263441</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.28688718947243</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>248.1920235529912</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>68.94132947984657</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348405</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>225.2436000926507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592422</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>91.06264775162076</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>20.24979976115227</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.4611042028412</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>63.87044589203426</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.445727774093873</v>
+        <v>108.5813113004308</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2326,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206822</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C2" t="n">
-        <v>380.4820441686398</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1043876014619</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>114.1043876014619</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>107.1588868522584</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358416</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.1393936243026</v>
       </c>
       <c r="Y2" t="n">
-        <v>646.8597007358178</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.09711040012049</v>
+        <v>131.518372282384</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>859.1616031188769</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W3" t="n">
-        <v>604.9242463906753</v>
+        <v>547.1301712528707</v>
       </c>
       <c r="X3" t="n">
-        <v>397.0727461851425</v>
+        <v>339.2786710473379</v>
       </c>
       <c r="Y3" t="n">
-        <v>189.3124474201885</v>
+        <v>131.518372282384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.2412344269841</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="C4" t="n">
-        <v>481.2412344269841</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D4" t="n">
         <v>331.1245950146483</v>
@@ -4476,22 +4476,22 @@
         <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
         <v>316.708372655101</v>
@@ -4500,7 +4500,7 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075543</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165361</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>581.690828849358</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>551.9171741581785</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001377</v>
+        <v>551.9171741581785</v>
       </c>
       <c r="X4" t="n">
-        <v>702.0338135705142</v>
+        <v>551.9171741581785</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.2412344269841</v>
+        <v>331.1245950146483</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G5" t="n">
         <v>21.0971104001205</v>
@@ -4567,22 +4567,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946894</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>686.1106626298174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>419.7330060626393</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899465</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899465</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
         <v>21.0971104001205</v>
@@ -4649,22 +4649,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4682,16 +4682,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>801.3675279810725</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>547.1301712528709</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>339.2786710473381</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>131.5183722823842</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.3743762745875</v>
+        <v>652.4144760322549</v>
       </c>
       <c r="C7" t="n">
-        <v>186.4381933466805</v>
+        <v>483.478293104348</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>333.3616536920123</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>185.4485601096192</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>38.55861261170881</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
         <v>21.0971104001205</v>
@@ -4737,10 +4737,10 @@
         <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4764,13 +4764,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>804.1565063161349</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>576.1669554181176</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.3743762745875</v>
+        <v>834.0629408624947</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1182.839042069394</v>
+        <v>139.4602804692876</v>
       </c>
       <c r="C8" t="n">
-        <v>813.8765251289826</v>
+        <v>69.82257392398805</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6108265222321</v>
+        <v>69.82257392398805</v>
       </c>
       <c r="E8" t="n">
-        <v>69.82257392398789</v>
+        <v>69.82257392398805</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478442</v>
+        <v>62.87707317478457</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467169</v>
+        <v>187.3702251467176</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607434</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045947</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.64796299523</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209588</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.9057189406</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550203</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661169</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342782</v>
+        <v>2435.830015762142</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342782</v>
+        <v>2227.077931858415</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342782</v>
+        <v>1973.496753383986</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342782</v>
+        <v>1642.433866040415</v>
       </c>
       <c r="W8" t="n">
-        <v>2333.043972370408</v>
+        <v>1289.665210770301</v>
       </c>
       <c r="X8" t="n">
-        <v>1959.578214109328</v>
+        <v>916.1994525092211</v>
       </c>
       <c r="Y8" t="n">
-        <v>1569.438882133516</v>
+        <v>526.0601205334094</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010768</v>
+        <v>929.5097208010841</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199498</v>
+        <v>755.0566915199571</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586986</v>
+        <v>606.1222818587058</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532431</v>
+        <v>446.8848268532503</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801281</v>
+        <v>300.3502688801353</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763235</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637187</v>
+        <v>113.8846868285468</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572707</v>
+        <v>298.4816831796465</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907519</v>
+        <v>593.0176666131284</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865053</v>
+        <v>956.0841350874305</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337622</v>
+        <v>1343.16853756</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325011</v>
+        <v>1675.05534754739</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789037</v>
+        <v>2237.368846930553</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342789</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251705</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685346</v>
+        <v>2230.816477685354</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751576</v>
+        <v>2002.726321751583</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519833</v>
+        <v>1767.57421351984</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791632</v>
+        <v>1513.336856791639</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586099</v>
+        <v>1305.485356586106</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821145</v>
+        <v>1097.725057821152</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.1771711294914</v>
+        <v>833.0542434877112</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015845</v>
+        <v>664.1180605598043</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892488</v>
+        <v>514.0014211474686</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685564</v>
+        <v>366.0883275650754</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685564</v>
+        <v>219.1983800671651</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685579</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380143</v>
+        <v>76.63468308380178</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676573</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368928</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904048</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101614</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931093</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616502</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.060959413886</v>
+        <v>1635.769145477365</v>
       </c>
       <c r="V10" t="n">
-        <v>1256.376471207999</v>
+        <v>1571.253543566219</v>
       </c>
       <c r="W10" t="n">
-        <v>966.9593011710389</v>
+        <v>1281.836373529259</v>
       </c>
       <c r="X10" t="n">
-        <v>738.9697502730215</v>
+        <v>1053.846822631241</v>
       </c>
       <c r="Y10" t="n">
-        <v>518.1771711294914</v>
+        <v>833.0542434877112</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,25 +5032,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,19 +5059,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,34 +5275,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5974,10 +5974,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6363,25 +6363,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,28 +6697,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6934,10 +6934,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7390,16 +7390,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.3999281462905628</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094962</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348511</v>
+        <v>20.9861830434849</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.1389255780009</v>
+        <v>110.003342051664</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>44.73700564187206</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>754147.486828536</v>
+        <v>754147.4868285359</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>736800.9871262149</v>
+        <v>736800.987126215</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736800.987126215</v>
+        <v>736800.9871262149</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846404</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
@@ -26352,7 +26352,7 @@
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580786</v>
+        <v>390680.0076580806</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606935</v>
+        <v>507909.2320606919</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101753</v>
+        <v>95270.23779101802</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501118</v>
+        <v>140465.2517501112</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26441,7 +26441,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
@@ -26456,7 +26456,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567909</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296477.6450298383</v>
+        <v>-296477.645029838</v>
       </c>
       <c r="C6" t="n">
         <v>383610.3355613548</v>
       </c>
       <c r="D6" t="n">
-        <v>73837.3774007711</v>
+        <v>73837.37740076979</v>
       </c>
       <c r="E6" t="n">
-        <v>65528.43634575438</v>
+        <v>65841.07767467706</v>
       </c>
       <c r="F6" t="n">
-        <v>573437.6684064479</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="G6" t="n">
-        <v>573437.6684064482</v>
+        <v>573750.3097353694</v>
       </c>
       <c r="H6" t="n">
-        <v>573437.6684064477</v>
+        <v>573750.3097353695</v>
       </c>
       <c r="I6" t="n">
-        <v>573437.668406448</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="J6" t="n">
-        <v>504438.5139873338</v>
+        <v>504751.155316255</v>
       </c>
       <c r="K6" t="n">
-        <v>573437.668406448</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="L6" t="n">
-        <v>478167.4306154305</v>
+        <v>478480.0719443513</v>
       </c>
       <c r="M6" t="n">
-        <v>440719.6927109789</v>
+        <v>441032.3340399005</v>
       </c>
       <c r="N6" t="n">
-        <v>573437.668406448</v>
+        <v>573750.3097353693</v>
       </c>
       <c r="O6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353691</v>
       </c>
       <c r="P6" t="n">
-        <v>573437.6684064481</v>
+        <v>573750.3097353694</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627843</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856955</v>
+        <v>640.1406900856973</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933043</v>
+        <v>319.6474457933059</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841892</v>
+        <v>376.4268100841911</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>327.6330159580934</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>115.1832933522299</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>63.39144972487493</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,10 +27475,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27517,7 +27517,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>39.06360943114908</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>222.6617251795602</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>128.5538093417099</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619743</v>
+        <v>157.3307018998655</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>258.5056643615031</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.2161343864263</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>104.8636863353361</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>38.33097478359983</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>296.331562291161</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465014</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>123.9973686247623</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164531471</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.77644916452428</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>162.7660855674632</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>188.2671974317937</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885562</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546677</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157558</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972537</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763197</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354939</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359949</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525086</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307903</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983029</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542135</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864754</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.53465245140484</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508449</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436932</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035143</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.1468330902628</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079428</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502173</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571287</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.8678404617174</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152222</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.835446451909</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947595</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463706</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366404</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133947</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419035</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752562</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840006</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415887</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954061</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772521</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490127</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023129</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462354</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046258</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708734</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939804</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307425</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658781</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942762</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650347</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34795,10 +34795,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659563</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705675</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313392</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655067</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087222</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559176</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091035</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430333</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.038476879764</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234326</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127582</v>
+        <v>63.3064965875667</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884363</v>
+        <v>186.4616124758583</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772545</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.7338065396991</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318889</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074646</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899248</v>
+        <v>567.9934337203664</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603486</v>
+        <v>326.4584983961981</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873332</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513693</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093288</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641535</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254639</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186654</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357669</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
